--- a/MM7/Aggregierte_Daten_Studierende MM7_JKH.xlsx
+++ b/MM7/Aggregierte_Daten_Studierende MM7_JKH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heinzj\Desktop\MM7\Datenaggregation\aggregierte Daten_Studierende MM7_JKH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\R-Projekte\MM7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABBD1DC-BF9B-4CD7-B748-57B6FFF1F35B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEF7E95-FD65-4A84-B797-33F2F0F33090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080" xr2:uid="{A906958F-1580-45B5-AAD0-062666D6F126}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A906958F-1580-45B5-AAD0-062666D6F126}"/>
   </bookViews>
   <sheets>
     <sheet name="aggregierte Daten" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,14 +82,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -143,13 +137,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -167,7 +161,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -176,52 +170,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -236,30 +185,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -572,1158 +543,1180 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.453125" customWidth="1"/>
-    <col min="2" max="5" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.5</v>
       </c>
       <c r="D2" s="1">
         <v>1.57</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="1">
         <v>1.53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>0.5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1.43</v>
       </c>
       <c r="D3" s="1">
         <v>1.6</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="1">
         <v>1.83</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>0.37</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1.4</v>
       </c>
       <c r="D4" s="1">
         <v>1.5</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="1">
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>0.1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1.4</v>
       </c>
       <c r="D5" s="1">
         <v>1.7</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="1">
         <v>1.67</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>0.93</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1.43</v>
       </c>
       <c r="D6" s="1">
         <v>1.7</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="1">
         <v>1.57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>0.5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1.03</v>
       </c>
       <c r="D7" s="1">
         <v>1.63</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="1">
         <v>1.7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>0.43</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1.47</v>
       </c>
       <c r="D8" s="1">
         <v>1.5</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="1">
         <v>2.23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>0.5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1.33</v>
       </c>
       <c r="D9" s="1">
         <v>1.7</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="1">
         <v>1.63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>0.17</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>1.53</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="1">
         <v>2.1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>29</v>
       </c>
       <c r="B11" s="1">
         <v>0.23</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1.33</v>
       </c>
       <c r="D11" s="1">
         <v>1.53</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="1">
         <v>1.9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>32</v>
       </c>
       <c r="B12" s="1">
         <v>0.3</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>1.33</v>
       </c>
       <c r="D12" s="1">
         <v>1.53</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="1">
         <v>1.57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>37</v>
       </c>
       <c r="B13" s="1">
         <v>1.3</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>1.4</v>
       </c>
       <c r="D13" s="1">
         <v>1.67</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="1">
         <v>1.77</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>38</v>
       </c>
       <c r="B14" s="1">
         <v>0.8</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>1.4</v>
       </c>
       <c r="D14" s="1">
         <v>1.57</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="1">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>44</v>
       </c>
       <c r="B15" s="1">
         <v>0.93</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>1.17</v>
       </c>
       <c r="D15" s="1">
         <v>1.7</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="1">
         <v>1.57</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>57</v>
       </c>
       <c r="B16" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>1.03</v>
       </c>
       <c r="D16" s="1">
         <v>1.5</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="1">
         <v>2.17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>63</v>
       </c>
       <c r="B17" s="1">
         <v>0.27</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>1.37</v>
       </c>
       <c r="D17" s="1">
         <v>1.5</v>
       </c>
-      <c r="E17" s="7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="E17" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>67</v>
       </c>
       <c r="B18" s="1">
         <v>0.53</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>1.47</v>
       </c>
       <c r="D18" s="1">
         <v>1.5</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="1">
         <v>2.23</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>74</v>
       </c>
       <c r="B19" s="1">
         <v>0.87</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>1.37</v>
       </c>
       <c r="D19" s="1">
         <v>1.53</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="1">
         <v>1.97</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>78</v>
       </c>
       <c r="B20" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>1.47</v>
       </c>
       <c r="D20" s="1">
         <v>1.5</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="1">
         <v>3.53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>80</v>
       </c>
       <c r="B21" s="1">
         <v>1.07</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>0.53</v>
       </c>
       <c r="D21" s="1">
         <v>1.53</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="1">
         <v>1.7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>92</v>
       </c>
       <c r="B22" s="1">
         <v>0.1</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>1.33</v>
       </c>
       <c r="D22" s="1">
         <v>1.5</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>93</v>
       </c>
       <c r="B23" s="1">
         <v>0.1</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>0.56999999999999995</v>
       </c>
       <c r="D23" s="1">
         <v>1.53</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="1">
         <v>1.53</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>99</v>
       </c>
       <c r="B24" s="1">
         <v>0.9</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>0.97</v>
       </c>
       <c r="D24" s="1">
         <v>1.73</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="6">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>104</v>
       </c>
       <c r="B25" s="1">
         <v>0.03</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>1.33</v>
       </c>
       <c r="D25" s="1">
         <v>1.5</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="1">
         <v>1.83</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>113</v>
       </c>
       <c r="B26" s="1">
         <v>0.1</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>1.37</v>
       </c>
       <c r="D26" s="1">
         <v>1.57</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="1">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>122</v>
       </c>
       <c r="B27" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>1.4</v>
       </c>
       <c r="D27" s="1">
         <v>1.5</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="1">
         <v>1.77</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>125</v>
       </c>
       <c r="B28" s="1">
         <v>0.17</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>1.43</v>
       </c>
       <c r="D28" s="1">
         <v>1.5</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="1">
         <v>1.7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>133</v>
       </c>
       <c r="B29" s="1">
         <v>0.1</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>1.37</v>
       </c>
       <c r="D29" s="1">
         <v>1.63</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>136</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>0.93</v>
       </c>
       <c r="D30" s="1">
         <v>1.5</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>140</v>
       </c>
       <c r="B31" s="1">
         <v>1.5</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>1.1299999999999999</v>
       </c>
       <c r="D31" s="1">
         <v>2.67</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="1">
         <v>1.83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>151</v>
       </c>
       <c r="B32" s="1">
         <v>0.27</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>1.37</v>
       </c>
       <c r="D32" s="1">
         <v>1.5</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="6">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>155</v>
       </c>
       <c r="B33" s="1">
         <v>0.37</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="D33" s="1">
         <v>1.5</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="1">
         <v>1.77</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="6">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>160</v>
       </c>
       <c r="B34" s="1">
         <v>0.23</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>1.5</v>
       </c>
       <c r="D34" s="1">
         <v>1.5</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>169</v>
       </c>
       <c r="B35" s="1">
         <v>0.13</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>1.43</v>
       </c>
       <c r="D35" s="1">
         <v>1.63</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="1">
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="6">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>170</v>
       </c>
       <c r="B36" s="1">
         <v>0.13</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>1.37</v>
       </c>
       <c r="D36" s="1">
         <v>1.63</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="1">
         <v>1.67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="6">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>171</v>
       </c>
       <c r="B37" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>0.6</v>
       </c>
       <c r="D37" s="1">
         <v>1.57</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="6">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>175</v>
       </c>
       <c r="B38" s="1">
         <v>0.13</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>1.47</v>
       </c>
       <c r="D38" s="1">
         <v>1.63</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>178</v>
       </c>
       <c r="B39" s="1">
         <v>0.3</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>1.43</v>
       </c>
       <c r="D39" s="1">
         <v>1.53</v>
       </c>
-      <c r="E39" s="7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="6">
+      <c r="E39" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>179</v>
       </c>
       <c r="B40" s="1">
         <v>0.5</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>1.4</v>
       </c>
       <c r="D40" s="1">
         <v>1.53</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="6">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>199</v>
       </c>
       <c r="B41" s="1">
         <v>1.2</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>1.47</v>
       </c>
       <c r="D41" s="1">
         <v>1.63</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="1">
         <v>1.9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>205</v>
       </c>
       <c r="B42" s="1">
         <v>0.27</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>0.8</v>
       </c>
       <c r="D42" s="1">
         <v>1.5</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="1">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>214</v>
       </c>
       <c r="B43" s="1">
         <v>0.43</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>1.5</v>
       </c>
       <c r="D43" s="1">
         <v>1.63</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>221</v>
       </c>
       <c r="B44" s="1">
         <v>1.07</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>1.4</v>
       </c>
       <c r="D44" s="1">
         <v>1.57</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>223</v>
       </c>
       <c r="B45" s="1">
         <v>1.4</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>1.27</v>
       </c>
       <c r="D45" s="1">
         <v>1.67</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="1">
         <v>1.9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>233</v>
       </c>
       <c r="B46" s="1">
         <v>0.53</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>0.4</v>
       </c>
       <c r="D46" s="1">
         <v>1.63</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="1">
         <v>1.9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>237</v>
       </c>
       <c r="B47" s="1">
         <v>0.47</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>1.37</v>
       </c>
       <c r="D47" s="1">
         <v>1.5</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="1">
         <v>2.6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="6">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>241</v>
       </c>
       <c r="B48" s="1">
         <v>1.03</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>1.5</v>
       </c>
       <c r="D48" s="1">
         <v>1.5</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="1">
         <v>1.77</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>248</v>
       </c>
       <c r="B49" s="1">
         <v>0.33</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>1.4</v>
       </c>
       <c r="D49" s="1">
         <v>1.5</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="1">
         <v>1.83</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>275</v>
       </c>
       <c r="B50" s="1">
         <v>0.17</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>1.2</v>
       </c>
       <c r="D50" s="1">
         <v>1.63</v>
       </c>
-      <c r="E50" s="7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
+      <c r="E50" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>277</v>
       </c>
       <c r="B51" s="1">
         <v>0.17</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1">
         <v>1.5</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="1">
         <v>1.83</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="6">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>279</v>
       </c>
       <c r="B52" s="1">
         <v>0.47</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>0.56999999999999995</v>
       </c>
       <c r="D52" s="1">
         <v>1.57</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="6">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>286</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>1.5</v>
       </c>
       <c r="D53" s="1">
         <v>1.5</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="1">
         <v>2.93</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="6">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>295</v>
       </c>
       <c r="B54" s="1">
         <v>0.27</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>1.43</v>
       </c>
       <c r="D54" s="1">
         <v>1.5</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="1">
         <v>2.9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>296</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>1.33</v>
       </c>
       <c r="D55" s="1">
         <v>1.5</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="6">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
         <v>300</v>
       </c>
       <c r="B56" s="1">
         <v>0.37</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>1.4</v>
       </c>
       <c r="D56" s="1">
         <v>1.5</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="1">
         <v>1.9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="6">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>302</v>
       </c>
       <c r="B57" s="1">
         <v>0.17</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>1.23</v>
       </c>
       <c r="D57" s="1">
         <v>1.5</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="1">
         <v>1.63</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="6">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>307</v>
       </c>
       <c r="B58" s="1">
         <v>0.03</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>1.4</v>
       </c>
       <c r="D58" s="1">
         <v>1.5</v>
       </c>
-      <c r="E58" s="7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="6">
+      <c r="E58" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>315</v>
       </c>
       <c r="B59" s="1">
         <v>0.4</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>1.23</v>
       </c>
       <c r="D59" s="1">
         <v>1.57</v>
       </c>
-      <c r="E59" s="7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="6">
+      <c r="E59" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>342</v>
       </c>
       <c r="B60" s="1">
         <v>1.37</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>1.3</v>
       </c>
       <c r="D60" s="1">
         <v>1.6</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="1">
         <v>1.93</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="6">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <v>350</v>
       </c>
       <c r="B61" s="1">
         <v>0.27</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>1.37</v>
       </c>
       <c r="D61" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="1">
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="6">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>353</v>
       </c>
       <c r="B62" s="1">
         <v>0.33</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <v>1.23</v>
       </c>
       <c r="D62" s="1">
         <v>1.53</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="1">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="6">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <v>365</v>
       </c>
       <c r="B63" s="1">
         <v>0.9</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>1.3</v>
       </c>
       <c r="D63" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="6">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <v>369</v>
       </c>
       <c r="B64" s="1">
         <v>0.13</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="1">
         <v>0.17</v>
       </c>
       <c r="D64" s="1">
         <v>1.53</v>
       </c>
-      <c r="E64" s="7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="6">
+      <c r="E64" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
         <v>421</v>
       </c>
       <c r="B65" s="1">
         <v>0.23</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="1">
         <v>1.37</v>
       </c>
       <c r="D65" s="1">
         <v>1.57</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="1">
         <v>2.37</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="6">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
         <v>427</v>
       </c>
       <c r="B66" s="1">
         <v>0.27</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="1">
         <v>1.5</v>
       </c>
       <c r="D66" s="1">
         <v>1.5</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="1">
         <v>1.9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="8">
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
         <v>483</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="6">
         <v>1.1299999999999999</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="6">
         <v>1.33</v>
       </c>
-      <c r="D67" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="E67" s="11">
+      <c r="D67" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E67" s="6">
         <v>2.0299999999999998</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
+      <formula>1</formula>
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
+      <formula>1</formula>
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
